--- a/ig/creation_ressources-conformite/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/creation_ressources-conformite/StructureDefinition-eclaire-researchstudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="338">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:36:41+00:00</t>
+    <t>2023-06-27T15:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,6 +373,9 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t>Slicing pour les différents identifiants de l'essai clinique</t>
+  </si>
+  <si>
     <t>No BRIDG mapping (although there is  DocumentVersion.identifier &gt; StudyProtocolDocumentVersion, this is arguably a different semantic)</t>
   </si>
   <si>
@@ -738,7 +741,7 @@
 </t>
   </si>
   <si>
-    <t>Critères d'incli=usion et d'exclusion / Inclusion &amp; exclusion criteria</t>
+    <t>Critères d'inclusion et d'exclusion / Inclusion &amp; exclusion criteria</t>
   </si>
   <si>
     <t>Reference to a Group that defines the criteria for and quantity of subjects participating in the study.  E.g. " 200 female Europeans between the ages of 20 and 45 with early onset diabetes".</t>
@@ -806,7 +809,7 @@
 </t>
   </si>
   <si>
-    <t>promoteurs / Sponsor primary and secondary sponsors</t>
+    <t>promoteur / primary Sponsor</t>
   </si>
   <si>
     <t>An organization that initiates the investigation and is legally responsible for the study.</t>
@@ -1394,7 +1397,7 @@
     <col min="26" max="26" width="54.97265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="52.18359375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2539,7 +2542,9 @@
       <c r="AB10" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AC10" s="2"/>
+      <c r="AC10" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
@@ -2562,30 +2567,30 @@
         <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>37</v>
@@ -2610,7 +2615,7 @@
         <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>111</v>
@@ -2681,30 +2686,30 @@
         <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>37</v>
@@ -2729,7 +2734,7 @@
         <v>109</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s" s="2">
         <v>111</v>
@@ -2800,27 +2805,27 @@
         <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2843,16 +2848,16 @@
         <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2902,7 +2907,7 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -2917,7 +2922,7 @@
         <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>37</v>
@@ -2926,7 +2931,7 @@
         <v>67</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>37</v>
@@ -2934,10 +2939,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2960,16 +2965,16 @@
         <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3019,7 +3024,7 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -3031,19 +3036,19 @@
         <v>58</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>37</v>
@@ -3051,14 +3056,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3077,19 +3082,19 @@
         <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3138,7 +3143,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3150,16 +3155,16 @@
         <v>58</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3170,10 +3175,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3199,13 +3204,13 @@
         <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3231,13 +3236,13 @@
         <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>37</v>
@@ -3255,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>46</v>
@@ -3270,27 +3275,27 @@
         <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3313,16 +3318,16 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3348,13 +3353,13 @@
         <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>37</v>
@@ -3372,7 +3377,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3387,13 +3392,13 @@
         <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3404,10 +3409,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3430,16 +3435,16 @@
         <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3465,13 +3470,13 @@
         <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>37</v>
@@ -3489,7 +3494,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -3504,16 +3509,16 @@
         <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>37</v>
@@ -3521,10 +3526,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3547,16 +3552,16 @@
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3582,10 +3587,10 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>37</v>
@@ -3606,7 +3611,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -3621,16 +3626,16 @@
         <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>37</v>
@@ -3638,10 +3643,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3664,16 +3669,16 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3699,10 +3704,10 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>37</v>
@@ -3723,7 +3728,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -3738,27 +3743,27 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3781,16 +3786,16 @@
         <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3816,13 +3821,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -3840,7 +3845,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -3855,27 +3860,27 @@
         <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3898,13 +3903,13 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3955,7 +3960,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -3970,7 +3975,7 @@
         <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>37</v>
@@ -3979,7 +3984,7 @@
         <v>67</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>37</v>
@@ -3987,10 +3992,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4013,16 +4018,16 @@
         <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4072,7 +4077,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -4087,7 +4092,7 @@
         <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>37</v>
@@ -4096,7 +4101,7 @@
         <v>67</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>37</v>
@@ -4104,10 +4109,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4130,16 +4135,16 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4165,10 +4170,10 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>37</v>
@@ -4189,7 +4194,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -4204,16 +4209,16 @@
         <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>37</v>
@@ -4221,10 +4226,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4247,16 +4252,16 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4282,13 +4287,13 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -4306,7 +4311,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -4321,13 +4326,13 @@
         <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -4338,10 +4343,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4364,16 +4369,16 @@
         <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4423,7 +4428,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4438,7 +4443,7 @@
         <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>37</v>
@@ -4447,7 +4452,7 @@
         <v>67</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>37</v>
@@ -4455,14 +4460,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4481,16 +4486,16 @@
         <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4540,7 +4545,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -4552,34 +4557,34 @@
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4598,16 +4603,16 @@
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4657,7 +4662,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -4669,30 +4674,30 @@
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4715,16 +4720,16 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4774,7 +4779,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -4786,30 +4791,30 @@
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4832,16 +4837,16 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4891,7 +4896,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -4903,30 +4908,30 @@
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4949,16 +4954,16 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5008,7 +5013,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5020,30 +5025,30 @@
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5066,16 +5071,16 @@
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5101,13 +5106,13 @@
         <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5125,7 +5130,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -5140,27 +5145,27 @@
         <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5183,16 +5188,16 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5242,7 +5247,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -5257,13 +5262,13 @@
         <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5274,10 +5279,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5300,13 +5305,13 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5357,7 +5362,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5372,7 +5377,7 @@
         <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>37</v>
@@ -5381,7 +5386,7 @@
         <v>67</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5389,10 +5394,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5415,13 +5420,13 @@
         <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5472,7 +5477,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -5504,10 +5509,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5536,7 +5541,7 @@
         <v>95</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>97</v>
@@ -5589,7 +5594,7 @@
         <v>100</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5621,14 +5626,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5650,10 +5655,10 @@
         <v>94</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>97</v>
@@ -5708,7 +5713,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -5740,10 +5745,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5766,16 +5771,16 @@
         <v>37</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5825,7 +5830,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>46</v>
@@ -5840,7 +5845,7 @@
         <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>37</v>
@@ -5849,7 +5854,7 @@
         <v>67</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
@@ -5857,10 +5862,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5883,16 +5888,16 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5942,7 +5947,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -5957,16 +5962,16 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -5974,10 +5979,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6000,16 +6005,16 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6059,7 +6064,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6074,7 +6079,7 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>37</v>
@@ -6083,7 +6088,7 @@
         <v>67</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6091,10 +6096,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6117,13 +6122,13 @@
         <v>37</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6174,7 +6179,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6189,7 +6194,7 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>37</v>
@@ -6206,10 +6211,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6232,13 +6237,13 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6289,7 +6294,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6321,10 +6326,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6353,7 +6358,7 @@
         <v>95</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>97</v>
@@ -6406,7 +6411,7 @@
         <v>100</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6438,14 +6443,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6467,10 +6472,10 @@
         <v>94</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>97</v>
@@ -6525,7 +6530,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -6557,10 +6562,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6583,16 +6588,16 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6642,7 +6647,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -6657,7 +6662,7 @@
         <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>37</v>
@@ -6674,10 +6679,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6700,16 +6705,16 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6738,10 +6743,10 @@
         <v>73</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>37</v>
@@ -6759,7 +6764,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -6774,13 +6779,13 @@
         <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>

--- a/ig/creation_ressources-conformite/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/creation_ressources-conformite/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T15:14:34+00:00</t>
+    <t>2023-06-30T11:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/creation_ressources-conformite/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/creation_ressources-conformite/StructureDefinition-eclaire-researchstudy.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T11:31:50+00:00</t>
+    <t>2023-06-30T11:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,6 +373,10 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
     <t>Slicing pour les différents identifiants de l'essai clinique</t>
   </si>
   <si>
@@ -400,22 +404,271 @@
     <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
   </si>
   <si>
-    <t>ResearchStudy.identifier:idSecondaire</t>
-  </si>
-  <si>
-    <t>idSecondaire</t>
-  </si>
-  <si>
-    <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.title</t>
+    <t>ResearchStudy.identifier:idPrimaire.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.use</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimaire.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire</t>
+  </si>
+  <si>
+    <t>idSecondaire</t>
+  </si>
+  <si>
+    <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.use</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondaire.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.title</t>
+  </si>
+  <si>
     <t>Nom de l'étude / Public Title</t>
   </si>
   <si>
@@ -447,10 +700,6 @@
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>StudyProtocolDocumentVersionPublicTitle.name</t>
   </si>
   <si>
@@ -495,9 +744,6 @@
     <t>The current state of the study.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codes that convey the current status of the research study.</t>
   </si>
   <si>
@@ -516,10 +762,6 @@
     <t>ResearchStudy.primaryPurposeType</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
   </si>
   <si>
@@ -527,9 +769,6 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes for the main intent of the study.</t>
@@ -769,24 +1008,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>When the study began and ended</t>
   </si>
   <si>
     <t>Identifies the start date and the expected (or actual, depending on status) end date for the study.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>ProjectConduct.dateRange; StudyProtocolVersion.plannedDuration</t>
   </si>
   <si>
@@ -803,10 +1030,6 @@
   </si>
   <si>
     <t>ResearchStudy.sponsor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>promoteur / primary Sponsor</t>
@@ -939,22 +1162,7 @@
     <t>ResearchStudy.arm.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>ResearchStudy.arm.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>ResearchStudy.arm.modifierExtension</t>
@@ -1362,7 +1570,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1371,7 +1579,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.0234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.78515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.98046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1388,7 +1596,7 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -1396,7 +1604,7 @@
     <col min="25" max="25" width="124.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.97265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="11.08203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="52.18359375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1407,7 +1615,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="207.0625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="62.87890625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="97.8125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="181.859375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2540,10 +2748,10 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>37</v>
@@ -2567,30 +2775,30 @@
         <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>37</v>
@@ -2615,7 +2823,7 @@
         <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>111</v>
@@ -2686,31 +2894,29 @@
         <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>37</v>
       </c>
@@ -2719,7 +2925,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -2728,21 +2934,19 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>37</v>
       </c>
@@ -2790,53 +2994,53 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -2845,19 +3049,19 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2895,43 +3099,43 @@
         <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>37</v>
@@ -2939,10 +3143,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2950,33 +3154,35 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
       </c>
@@ -2985,7 +3191,7 @@
         <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>37</v>
@@ -3000,13 +3206,13 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -3024,31 +3230,31 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>37</v>
@@ -3056,21 +3262,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -3082,19 +3288,19 @@
         <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3119,13 +3325,13 @@
         <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>37</v>
@@ -3143,28 +3349,28 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3175,10 +3381,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3186,7 +3392,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>46</v>
@@ -3195,24 +3401,26 @@
         <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>37</v>
       </c>
@@ -3224,7 +3432,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -3236,13 +3444,13 @@
         <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>37</v>
@@ -3260,10 +3468,10 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>46</v>
@@ -3275,27 +3483,27 @@
         <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>157</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3318,16 +3526,16 @@
         <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3341,7 +3549,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>37</v>
@@ -3353,13 +3561,13 @@
         <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>37</v>
@@ -3377,7 +3585,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3392,13 +3600,13 @@
         <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3409,10 +3617,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3435,16 +3643,16 @@
         <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3470,13 +3678,13 @@
         <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>37</v>
@@ -3494,7 +3702,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -3506,19 +3714,19 @@
         <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>37</v>
@@ -3526,10 +3734,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3540,7 +3748,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -3552,16 +3760,16 @@
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3587,10 +3795,10 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>37</v>
@@ -3611,31 +3819,31 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>37</v>
@@ -3643,12 +3851,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>37</v>
       </c>
@@ -3669,18 +3879,18 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>112</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
       </c>
@@ -3704,10 +3914,10 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>37</v>
@@ -3728,7 +3938,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -3743,27 +3953,27 @@
         <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3774,7 +3984,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -3783,20 +3993,18 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -3821,13 +4029,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>194</v>
+        <v>37</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -3845,46 +4053,46 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>189</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3900,18 +4108,20 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>37</v>
@@ -3948,19 +4158,19 @@
         <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -3972,19 +4182,19 @@
         <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>37</v>
@@ -3992,10 +4202,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4003,33 +4213,35 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
       </c>
@@ -4038,7 +4250,7 @@
         <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>37</v>
@@ -4053,13 +4265,13 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
@@ -4077,13 +4289,13 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>58</v>
@@ -4092,16 +4304,16 @@
         <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>37</v>
@@ -4109,10 +4321,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4123,7 +4335,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -4135,18 +4347,20 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
       </c>
@@ -4170,13 +4384,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4194,13 +4408,13 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>58</v>
@@ -4209,16 +4423,16 @@
         <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>37</v>
@@ -4226,10 +4440,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4240,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4252,18 +4466,20 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="N25" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>37</v>
       </c>
@@ -4275,7 +4491,7 @@
         <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>37</v>
@@ -4287,13 +4503,13 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -4311,13 +4527,13 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>58</v>
@@ -4326,13 +4542,13 @@
         <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -4343,10 +4559,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4366,19 +4582,19 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4392,7 +4608,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -4428,7 +4644,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -4443,16 +4659,16 @@
         <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>37</v>
@@ -4460,21 +4676,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4486,16 +4702,16 @@
         <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>179</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4545,46 +4761,46 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>238</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4603,16 +4819,16 @@
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4662,7 +4878,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -4674,30 +4890,30 @@
         <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>246</v>
+        <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>250</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4720,16 +4936,16 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4779,7 +4995,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
@@ -4791,30 +5007,30 @@
         <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>258</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4825,7 +5041,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -4837,16 +5053,16 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4896,46 +5112,46 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>258</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4954,18 +5170,20 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5013,7 +5231,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -5025,30 +5243,30 @@
         <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>271</v>
+        <v>37</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>272</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5056,7 +5274,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>46</v>
@@ -5065,22 +5283,22 @@
         <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5106,13 +5324,13 @@
         <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5130,10 +5348,10 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>46</v>
@@ -5145,27 +5363,27 @@
         <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>280</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5176,7 +5394,7 @@
         <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -5185,19 +5403,19 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5223,13 +5441,13 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
@@ -5247,13 +5465,13 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>58</v>
@@ -5262,13 +5480,13 @@
         <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5279,10 +5497,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5293,7 +5511,7 @@
         <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5302,18 +5520,20 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>147</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>37</v>
@@ -5338,13 +5558,13 @@
         <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>37</v>
@@ -5362,13 +5582,13 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>58</v>
@@ -5377,16 +5597,16 @@
         <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5394,10 +5614,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5408,7 +5628,7 @@
         <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5417,18 +5637,20 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>37</v>
@@ -5453,10 +5675,10 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>37</v>
@@ -5477,31 +5699,31 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5509,14 +5731,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5532,19 +5754,19 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5570,10 +5792,10 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>37</v>
@@ -5582,19 +5804,19 @@
         <v>37</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5606,34 +5828,34 @@
         <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>37</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>302</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5646,26 +5868,24 @@
         <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>37</v>
       </c>
@@ -5689,13 +5909,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -5713,7 +5933,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -5725,30 +5945,30 @@
         <v>58</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>37</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>37</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5756,10 +5976,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
@@ -5768,20 +5988,18 @@
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -5830,13 +6048,13 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>58</v>
@@ -5845,7 +6063,7 @@
         <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>37</v>
@@ -5854,7 +6072,7 @@
         <v>67</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
@@ -5862,10 +6080,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5876,7 +6094,7 @@
         <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -5888,16 +6106,16 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5947,13 +6165,13 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>58</v>
@@ -5962,16 +6180,16 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>37</v>
@@ -5979,10 +6197,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5993,7 +6211,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>37</v>
@@ -6002,19 +6220,19 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6040,10 +6258,10 @@
         <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>291</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>37</v>
@@ -6064,13 +6282,13 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>58</v>
@@ -6079,16 +6297,16 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>37</v>
@@ -6096,10 +6314,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6119,18 +6337,20 @@
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>289</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -6155,13 +6375,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>297</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
@@ -6179,7 +6399,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6194,13 +6414,13 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
@@ -6211,10 +6431,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6237,15 +6457,17 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -6294,7 +6516,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6303,13 +6525,13 @@
         <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>37</v>
@@ -6318,7 +6540,7 @@
         <v>67</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>37</v>
@@ -6326,14 +6548,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6349,19 +6571,19 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>94</v>
+        <v>309</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>97</v>
+        <v>312</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6399,19 +6621,19 @@
         <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6423,66 +6645,64 @@
         <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>37</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>37</v>
       </c>
@@ -6530,42 +6750,42 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>60</v>
+        <v>323</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>37</v>
+        <v>324</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>37</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6585,19 +6805,19 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6647,7 +6867,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -6659,30 +6879,30 @@
         <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AO45" t="s" s="2">
-        <v>37</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6702,19 +6922,19 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6740,13 +6960,13 @@
         <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>335</v>
+        <v>37</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>336</v>
+        <v>37</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>37</v>
@@ -6764,7 +6984,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -6776,21 +6996,1889 @@
         <v>58</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>193</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>337</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>168</v>
+        <v>338</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="AO46" t="s" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>37</v>
       </c>
     </row>
